--- a/public/Schedule.xlsx
+++ b/public/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quang.tranthanh/Sites/quan-ly-lich-cong-tac-fe/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F592009A-E2B4-0442-9F0B-BB80D6373F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B8FBC1-09C6-A241-9CC9-3AC41CB98FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17260" xr2:uid="{620C01F5-2B41-48F8-8851-1818C826C7C7}"/>
   </bookViews>
@@ -35,39 +35,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>program</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Khảo sát địa bàn</t>
   </si>
   <si>
-    <t>department_id</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
     <t>Công ty ABC</t>
   </si>
   <si>
-    <t>location_2</t>
-  </si>
-  <si>
     <t>Công ty xyz</t>
   </si>
   <si>
-    <t>car_id</t>
-  </si>
-  <si>
-    <t>participants</t>
-  </si>
-  <si>
-    <t>Anh Trần Văn X</t>
+    <t>ten_lich_trinh</t>
+  </si>
+  <si>
+    <t>phong_ban</t>
+  </si>
+  <si>
+    <t>Phòng quản lý vật tư</t>
+  </si>
+  <si>
+    <t>thoi_gian_bat_dau</t>
+  </si>
+  <si>
+    <t>diem_xuat_phat</t>
+  </si>
+  <si>
+    <t>diem_ket_thuc</t>
+  </si>
+  <si>
+    <t>bien_so_xe_duoc_phan_cong</t>
+  </si>
+  <si>
+    <t>nguoi_tham_gia</t>
+  </si>
+  <si>
+    <t>Anh Trần Văn X, Anh Trần Thanh Y</t>
   </si>
 </sst>
 </file>
@@ -444,61 +447,64 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>45457.354166666664</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
